--- a/Proposal/amazon basic stat.xlsx
+++ b/Proposal/amazon basic stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Score</t>
   </si>
@@ -64,10 +64,13 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Number of Review of each ProductId</t>
-  </si>
-  <si>
-    <t>Number of Review of each UserId</t>
+    <t># of words in Text</t>
+  </si>
+  <si>
+    <t># of Review of each UserId</t>
+  </si>
+  <si>
+    <t># of Review of each ProductId</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -330,6 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,9 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -643,7 +649,7 @@
     <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -659,15 +665,19 @@
       </c>
       <c r="H1" s="14"/>
       <c r="K1" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L1" s="14"/>
       <c r="O1" s="13" t="s">
         <v>17</v>
       </c>
       <c r="P1" s="14"/>
+      <c r="S1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -698,8 +708,15 @@
       <c r="P2" s="16">
         <v>256059</v>
       </c>
+      <c r="S2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="16">
+        <v>568454</v>
+      </c>
+      <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -730,8 +747,15 @@
       <c r="P3" s="19">
         <v>2.2200120000000001</v>
       </c>
+      <c r="S3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="19">
+        <v>80.264022999999995</v>
+      </c>
+      <c r="V3" s="21"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -762,8 +786,15 @@
       <c r="P4" s="19">
         <v>4.4433610000000003</v>
       </c>
+      <c r="S4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="19">
+        <v>79.455383999999995</v>
+      </c>
+      <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -794,8 +825,14 @@
       <c r="P5" s="16">
         <v>1</v>
       </c>
+      <c r="S5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>0.25</v>
       </c>
@@ -826,8 +863,14 @@
       <c r="P6" s="16">
         <v>1</v>
       </c>
+      <c r="S6" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="16">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>0.5</v>
       </c>
@@ -858,8 +901,14 @@
       <c r="P7" s="16">
         <v>1</v>
       </c>
+      <c r="S7" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="16">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>0.75</v>
       </c>
@@ -890,8 +939,14 @@
       <c r="P8" s="16">
         <v>2</v>
       </c>
+      <c r="S8" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="T8" s="16">
+        <v>98</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
@@ -922,8 +977,14 @@
       <c r="P9" s="18">
         <v>448</v>
       </c>
+      <c r="S9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="18">
+        <v>3432</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G10" s="15" t="s">
         <v>14</v>
       </c>
@@ -931,7 +992,7 @@
         <v>295743</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" s="17" t="s">
         <v>15</v>
       </c>
